--- a/TKB.xlsx
+++ b/TKB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\React\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51655DF-907B-4FF6-9CCE-81BCDD928732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9857B2-AE86-4AF9-96A9-0D3D7A94CF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{EE8FF63C-9058-4B41-85CB-CDAFC7C74D5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{EE8FF63C-9058-4B41-85CB-CDAFC7C74D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,23 +33,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
   <si>
     <t>Tên cơ sở thực tập</t>
   </si>
   <si>
-    <t>Tên công ty</t>
-  </si>
-  <si>
     <t>Công ty TNHH CyberLogitec Việt Nam</t>
   </si>
   <si>
     <t>Tòa nhà SCETPA, 19A Cộng Hòa, P.12, Quận Tân Bình, TP. Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t xml:space="preserve">Công ty </t>
-  </si>
-  <si>
     <t>Công ty phần mềm SBT</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>IMT Solution</t>
   </si>
   <si>
-    <t>55-57 Bàu Cát 4, quận Tân Bình, HCM, VN</t>
-  </si>
-  <si>
     <t>Seminar chuyên đề</t>
   </si>
   <si>
@@ -123,13 +114,281 @@
   </si>
   <si>
     <t>Nguyễn Võ Lam Giang</t>
+  </si>
+  <si>
+    <t>levincigroup</t>
+  </si>
+  <si>
+    <t>130 CỘng Hòa, phường 4, Tân Bình, HCM</t>
+  </si>
+  <si>
+    <t>Chi nhánh công ty TNHH phân phối Synnex fpt</t>
+  </si>
+  <si>
+    <t>Lô L29B-31B-33B, đường Tân Thuận, KCX Tân Thuận, P.Tân Thuận Đông, Q.7, HCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công ty TNHH Kyanon Digital </t>
+  </si>
+  <si>
+    <t>Lầu 2, 294-296 Trường Sa, phường 2, quận Phú Nhuận, HCM</t>
+  </si>
+  <si>
+    <t>Công ty DiCentral Việt Nam</t>
+  </si>
+  <si>
+    <t>Tòa nhà Pasteur Tower, 139 Pasteur, P.6, Quận 3, TP. HCM</t>
+  </si>
+  <si>
+    <t>Công ty Hybrid Technologies Việt Nam</t>
+  </si>
+  <si>
+    <t>Tầng 7, 90 Nguyễn Đình Chiểu, phường Đa Kao, quận 1, TP.HCM</t>
+  </si>
+  <si>
+    <t>Công ty CP HINNOVA</t>
+  </si>
+  <si>
+    <t>Lầu 7, 181 Cao Thắng, Phường 12, Quận 10, Tp.HCM</t>
+  </si>
+  <si>
+    <t>55-57 Bàu Cát 4, Phường 14, Tân Bình, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công ty TNHH đầu tư xúc tiến thương mại xây dựng Hoàng Phát</t>
+  </si>
+  <si>
+    <t>E13/25C tổ 13, ấp 5A, Xã Vĩnh Lộc A, Huyện Bình Chánh, TP.HCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DXC Technology </t>
+  </si>
+  <si>
+    <t>Tòa nhà Etown 5, Công viên Etown, 364 Cộng Hòa, Q. Tân Bình, TP.HCM</t>
+  </si>
+  <si>
+    <t>Công ty LogiGear Vietnam - SaiGon</t>
+  </si>
+  <si>
+    <t>462 Phan Xích Long, Phường 2, Quận Phú Nhuận, TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>công ty TOS</t>
+  </si>
+  <si>
+    <t>3th Floor, 68 Hoang Dieu Street, Ward 12, 04 District, HCMC</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH Shinhan DS Việt Nam</t>
+  </si>
+  <si>
+    <t>Công ty SAILING (công ty đơn vị của công ty HERAPO)</t>
+  </si>
+  <si>
+    <t>10 Phổ Quang p.2 Q.Tân Bình</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Công nghệ GEEK Up.</t>
+  </si>
+  <si>
+    <t>244/31 Huỳnh Văn Bánh, Q. Phú Nhuận, TP.HCM</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần công nghệ KAS</t>
+  </si>
+  <si>
+    <t>Lake View 1, Đường Ven Hồ Trung Tâm, P. An Khánh, TP. Thủ Đức, TP. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ SAPO (SAPO TECHNOLOGY JSC)</t>
+  </si>
+  <si>
+    <t>Lầu 3 - Tòa nhà Lữ Gia - Số 70 Lữ Gia - Phường 15 - Quận 11 - TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Dược phẩm Pharmacity</t>
+  </si>
+  <si>
+    <t>248A Nơ Trang Long, Phường 12, Bình Thạnh, Thành phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phẩn Đầu tư Thế Giới Di Động (MWG)</t>
+  </si>
+  <si>
+    <t>Lô T2-1.2, Đường D1, Khu Công Nghệ Cao, Phường Tân Phú, Tp Thủ Đức, Thành phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công Ty Cổ Phần Ei Industrial</t>
+  </si>
+  <si>
+    <t>A01-06 Hoàng Anh River View, 37 Nguyễn Văn Hưởng, Thảo Điền, Thành phố Thủ Đức, TP. HCM</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần HINNOVA</t>
+  </si>
+  <si>
+    <t>181 Cao Thắng, Phường 12, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần VNG</t>
+  </si>
+  <si>
+    <t>Công ty Cube System Việt Nam</t>
+  </si>
+  <si>
+    <t>6F, JVPE Building, Quang Trung, p.Tân Chánh Hiệp,q.12, TPHCM</t>
+  </si>
+  <si>
+    <t>Công Ty Cổ Phần Amit Group</t>
+  </si>
+  <si>
+    <t>7 Đường số 7C, Khu đô thị An Phú An Khánh, thành phố Thủ Đức, Thành phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công ty Minh Phú</t>
+  </si>
+  <si>
+    <t>14Q1 đường 38, phường Thảo Điền, Q2, TP.HCM</t>
+  </si>
+  <si>
+    <t>FPT Software</t>
+  </si>
+  <si>
+    <t>Lầu 7, Tòa nhà MWG Lô T2-1.2, Đường D1, Khu Công Nghệ Cao, Phường Tân Phú, Quận 9, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công ty phần mềm Hợp Nhất</t>
+  </si>
+  <si>
+    <t>589 Lạc Long Quân (mặt sau), Phường 10, Tân Bình, TP. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công ty TNHH AziWorld</t>
+  </si>
+  <si>
+    <t>13 Lê Đại Hành, Phường 15, Quận 11, Tp. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Beyondnet VN</t>
+  </si>
+  <si>
+    <t>Tầng 17, Tòa nhà Golden King số 15 Nguyễn Lương Bằng, P. Tân Phú, Q.7, TP. Hồ Chí Minh.</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH Bliss Interactive</t>
+  </si>
+  <si>
+    <t>180 Đường số 40, Tân Phong, Quận 7, Phường 12, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công ty TNHH CopDeal</t>
+  </si>
+  <si>
+    <t>B19 đường D4, Kp2, phường Phú Mỹ, Quận 7, TP HCM</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH Công nghệ Phúc Thành</t>
+  </si>
+  <si>
+    <t>387 Nguyễn Huệ, Phường 7 , TP Tuy Hòa, Tỉnh Phú Yên</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần Công nghệ Weebpal</t>
+  </si>
+  <si>
+    <t>267 Trần Thủ Độ, phường Phú Thạnh, quận Tân Phú, TP.HCM</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Giải Pháp Tiên Khanh</t>
+  </si>
+  <si>
+    <t>776/22B Nguyễn Kiệm, P4, Phú Nhuận, TPHCM</t>
+  </si>
+  <si>
+    <t>Công ty TNHH kỹ thuật và công nghệ thông tin ITTEK</t>
+  </si>
+  <si>
+    <t>130 Duy Tân, P.15, Phú Nhuận, TP HCM</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH MIDOTA</t>
+  </si>
+  <si>
+    <t>153 Đặng Thùy Trâm, Phường 13, Quận Bình Thạnh, TP HCM</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Robert Bosch Engineering and Business Solutions Việt Nam</t>
+  </si>
+  <si>
+    <t>Tòa nhà E-town, 364 Cộng Hòa, Quận Tân Bình, TP. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thiết bị Minh Tâm</t>
+  </si>
+  <si>
+    <t>385 Cộng Hòa, Phường 13, Tân Bình, Thành phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ VÀ KỸ THUẬT TRÍ ĐỨC</t>
+  </si>
+  <si>
+    <t>366/17V Lê Văn Quới, P.Bình Hưng Hòa A, Q.Bình Tân, Tp.Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>CT TNHH một thành viên Công nghệ vàTruyền thông 3i</t>
+  </si>
+  <si>
+    <t>P7, Lầu 11 Chung cư Bình Minh Lương Định Của, P. Bình An, Q.2, TP.HCM</t>
+  </si>
+  <si>
+    <t>DXC Technology Services Vietnam</t>
+  </si>
+  <si>
+    <t>Etown 5, 364 Cộng Hòa, Phường 13, Quận Tân Bình, TP.HCM</t>
+  </si>
+  <si>
+    <t>Minerva Technology Solutions</t>
+  </si>
+  <si>
+    <t>927 Đ. Trần Hưng Đạo, Phường 1, Quận 5, TP HCM</t>
+  </si>
+  <si>
+    <t>Ngân Hàng TMCP Việt Nam Thương Tín - VIETBANK</t>
+  </si>
+  <si>
+    <t>62A Cách Mạng Tháng Tám, Phường 6, Quận 3, TP. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Weebpal Company</t>
+  </si>
+  <si>
+    <t>54 Bàu Cát 6, Phường 14, Tân Bình, TP.HCM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI &amp; DỊCH VỤ CÔNG NGHỆ AZTECH</t>
+  </si>
+  <si>
+    <t>293A28 Ung Văn Khiêm, Phường 25, Quận Bình Thạnh, TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công ty TNHH truyền thông Ureka VN</t>
+  </si>
+  <si>
+    <t>Villa 02, đường Trần Văn Sắc (đường số 44 cũ), Phường Thảo Điền, TP.Thủ Đức (Quận 2), TP.HCM</t>
+  </si>
+  <si>
+    <t>VNG Campus (KCX Tân Thuận)
+Z06 Đường số 13 - Phường Tân Thuận Đông - Quận 7 TP.HCM</t>
+  </si>
+  <si>
+    <t>Địa chỉ công ty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +402,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="7">
@@ -210,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -223,6 +499,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,232 +822,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FD0EED-DCA3-4FC3-A574-10375B0AB3DC}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A35" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>841073</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>4</v>
+      <c r="B5" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -770,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA32B2C6-931B-4729-83D0-559B5F460D0D}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -785,7 +1249,7 @@
         <v>841073</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1">
         <v>4</v>
@@ -794,7 +1258,7 @@
         <v>841482</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1">
         <v>3</v>
@@ -805,7 +1269,7 @@
         <v>841308</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -814,7 +1278,7 @@
         <v>841476</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -825,7 +1289,7 @@
         <v>841072</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -836,7 +1300,7 @@
         <v>841119</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -845,7 +1309,7 @@
         <v>841410</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -853,28 +1317,28 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -884,10 +1348,10 @@
         <v>841073</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -911,10 +1375,10 @@
         <v>841072</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -931,7 +1395,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -941,10 +1405,10 @@
         <v>841308</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -969,10 +1433,10 @@
         <v>841119</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M9">
         <v>3</v>
@@ -1088,28 +1552,28 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1119,10 +1583,10 @@
         <v>841073</v>
       </c>
       <c r="K23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1146,10 +1610,10 @@
         <v>841072</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M24">
         <v>2</v>
@@ -1166,7 +1630,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1176,10 +1640,10 @@
         <v>841308</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M25">
         <v>7</v>
@@ -1204,10 +1668,10 @@
         <v>841119</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M26">
         <v>3</v>

--- a/TKB.xlsx
+++ b/TKB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\React\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9857B2-AE86-4AF9-96A9-0D3D7A94CF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03FED29-DC82-4BFA-AA9A-70781C5E3E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{EE8FF63C-9058-4B41-85CB-CDAFC7C74D5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{EE8FF63C-9058-4B41-85CB-CDAFC7C74D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
   <si>
     <t>Tên cơ sở thực tập</t>
   </si>
@@ -382,13 +382,19 @@
   </si>
   <si>
     <t>Địa chỉ công ty</t>
+  </si>
+  <si>
+    <t>nhóm 13</t>
+  </si>
+  <si>
+    <t>python</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,8 +426,14 @@
       <sz val="13"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000080"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,8 +470,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -482,11 +500,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666666"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -508,6 +552,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FD0EED-DCA3-4FC3-A574-10375B0AB3DC}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1000,7 +1054,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>59</v>
       </c>
@@ -1128,7 +1182,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>90</v>
       </c>
@@ -1160,7 +1214,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>98</v>
       </c>
@@ -1168,7 +1222,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>100</v>
       </c>
@@ -1192,7 +1246,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>106</v>
       </c>
@@ -1216,7 +1270,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>112</v>
       </c>
@@ -1234,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA32B2C6-931B-4729-83D0-559B5F460D0D}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,6 +1317,15 @@
       <c r="F1">
         <v>3</v>
       </c>
+      <c r="I1" s="20">
+        <v>841422</v>
+      </c>
+      <c r="J1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1453,6 +1516,10 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="4"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1497,7 +1564,6 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
